--- a/recipes/white/White_wild_yeast_favorite.xlsx
+++ b/recipes/white/White_wild_yeast_favorite.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="1260" windowWidth="25040" windowHeight="15740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1760" yWindow="0" windowWidth="25040" windowHeight="17460" tabRatio="500" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="WhiteWildYeastFavorite (3)" sheetId="5" r:id="rId1"/>
-    <sheet name="WhiteWildYeastFavorite" sheetId="2" r:id="rId2"/>
-    <sheet name="WhiteWildYeastFavorite (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="header" sheetId="1" r:id="rId4"/>
-    <sheet name="try2" sheetId="3" r:id="rId5"/>
+    <sheet name="GF_bakingMaguque_data" sheetId="10" r:id="rId1"/>
+    <sheet name="WhiteEasy_1" sheetId="5" r:id="rId2"/>
+    <sheet name="WhiteWildYeastFavorite" sheetId="2" r:id="rId3"/>
+    <sheet name="WhiteWildYeastFavorite (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="header" sheetId="1" r:id="rId5"/>
+    <sheet name="easy_northwest_white_data" sheetId="6" r:id="rId6"/>
+    <sheet name="gf_croissant_data" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
+    <sheet name="Tartine_country_data" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="169">
   <si>
     <t>bake</t>
   </si>
@@ -116,13 +120,427 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>recipe name</t>
+  </si>
+  <si>
+    <t>date of bake</t>
+  </si>
+  <si>
+    <t>variation from recipe</t>
+  </si>
+  <si>
+    <t>result descriptions</t>
+  </si>
+  <si>
+    <t>northwest white</t>
+  </si>
+  <si>
+    <t>recipe source</t>
+  </si>
+  <si>
+    <t>flour used</t>
+  </si>
+  <si>
+    <t>notes on bake process</t>
+  </si>
+  <si>
+    <t>all purpose whole foods 365 30% 00 typo whole foods 70%</t>
+  </si>
+  <si>
+    <t>tasty, but not addictive</t>
+  </si>
+  <si>
+    <t>portion %</t>
+  </si>
+  <si>
+    <t>king arthur bread flour</t>
+  </si>
+  <si>
+    <t>underproofed</t>
+  </si>
+  <si>
+    <t>proofing time</t>
+  </si>
+  <si>
+    <t>proof temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 for 20 min, 500 fo r 10 min, came out golden </t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>shaping</t>
+  </si>
+  <si>
+    <t>sticking, hard</t>
+  </si>
+  <si>
+    <t>sticking, hard to shape</t>
+  </si>
+  <si>
+    <t>fridge 36 hours then 2+ hour room temprerature</t>
+  </si>
+  <si>
+    <t>sergei</t>
+  </si>
+  <si>
+    <t>vary tasty, loved it</t>
+  </si>
+  <si>
+    <t>breadcalc.com, easy autumn white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not a full rise, no ear, flat, </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>2 hours stretch and fold, refrigerate overnight, shape, rise 8 hours</t>
+  </si>
+  <si>
+    <t>started at 8 pm, folded 5 times for 2 hours, refiregerated overnight+next day, out of fridge at 6pm , baked after a couple of hours, the dough appeared very well raised</t>
+  </si>
+  <si>
+    <t>good rise, no ear, delicate shell, open crumb, but not very open</t>
+  </si>
+  <si>
+    <t>tasty, chewy, like armenian large grey boule from old times</t>
+  </si>
+  <si>
+    <t>500 F for 20 min, 10 min open</t>
+  </si>
+  <si>
+    <t>started at 9 pm, stretch and fold until 12 am, refrigerate, shape at 9:30 am</t>
+  </si>
+  <si>
+    <t>350 king arthur flour, 240 g water</t>
+  </si>
+  <si>
+    <t>300g king arthur bread flour, 50 g spelt flour from whole foods, 240 and then some water to boost hydration for spelt</t>
+  </si>
+  <si>
+    <t>scoring not enough deep</t>
+  </si>
+  <si>
+    <t>started at 7 pm,autolyze until 12 am in the refrigerator, add salt, stretch and fold, shape and rest overnight</t>
+  </si>
+  <si>
+    <t>proofing notes</t>
+  </si>
+  <si>
+    <t>bake time</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>4 hours fridge</t>
+  </si>
+  <si>
+    <t>easy to shape</t>
+  </si>
+  <si>
+    <t>very flat, crumb open mederately, soft, shell is delicate, no ear</t>
+  </si>
+  <si>
+    <t>very tasty, ate quickly</t>
+  </si>
+  <si>
+    <t>bulk fermentation</t>
+  </si>
+  <si>
+    <t>8 hours</t>
+  </si>
+  <si>
+    <t>same with bulk rize</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>cause of failure</t>
+  </si>
+  <si>
+    <t>overproofed, shaping hard, dough too runny</t>
+  </si>
+  <si>
+    <t>step name</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>toma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fridge overnight, </t>
+  </si>
+  <si>
+    <t>interior is dense, height is low, no oven spring, crumb is not dense, outside is fine, the whole thinkg is flat</t>
+  </si>
+  <si>
+    <t>GF croissant</t>
+  </si>
+  <si>
+    <t>tasty, not good looking</t>
+  </si>
+  <si>
+    <t>will eat</t>
+  </si>
+  <si>
+    <t>butter was not laminated well, too cold, dough was runny to laminate butter</t>
+  </si>
+  <si>
+    <t>350 f for 15 minutes or until golden</t>
+  </si>
+  <si>
+    <t>15 - 20 min</t>
+  </si>
+  <si>
+    <t>rolling</t>
+  </si>
+  <si>
+    <t>sticking, hard, butter was in chunks</t>
+  </si>
+  <si>
+    <t>do not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use regular butter, use cold butter, </t>
+  </si>
+  <si>
+    <t>dense, did not open, no lamination, no layers, leaked butter, no flakes whatsoever</t>
+  </si>
+  <si>
+    <t>(252 grams Better Batter all purpose gluten free flour + 32 grams cornstarch + 32 grams nonfat dry milk, ground into a finer powder),</t>
+  </si>
+  <si>
+    <t>https://gluten-free-bread.org/how-to-make-the-most-tender-flaky-gluten-free-croissants-ever, https://glutenfreeonashoestring.com/gluten-free-croissants/</t>
+  </si>
+  <si>
+    <t>250 king arthur, 100 all purpose, 240 g ware</t>
+  </si>
+  <si>
+    <t>overproofed, shaping easy, dough firm, refrigearated overnight, shaping was easy because of that</t>
+  </si>
+  <si>
+    <t>overnight, refrigerator</t>
+  </si>
+  <si>
+    <t>dough did not rise, the boulee looked good, but inside is tight, crust is fine, underproofed?</t>
+  </si>
+  <si>
+    <t>taste is fine</t>
+  </si>
+  <si>
+    <t>fridge</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>taste is unknown</t>
+  </si>
+  <si>
+    <t>dough rised well, finger test: mark was coming back slowly</t>
+  </si>
+  <si>
+    <t>dough rised moderately, finger test: was springy, finger mark comes back easily</t>
+  </si>
+  <si>
+    <t>taste very good</t>
+  </si>
+  <si>
+    <t>250 king arthur, 100 all purpose, 240 g water</t>
+  </si>
+  <si>
+    <t>250 king arthur, 100 spelt, 250 water</t>
+  </si>
+  <si>
+    <t>a bit sticky, but possible to shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not too sticky, easy to shape, </t>
+  </si>
+  <si>
+    <t>500 for 20 min, 450 for 10 min</t>
+  </si>
+  <si>
+    <t>from 9 am to 18 pm, in the refrigerator, with salt</t>
+  </si>
+  <si>
+    <t>stretch an d fold</t>
+  </si>
+  <si>
+    <t>2,5 hours</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>overnight</t>
+  </si>
+  <si>
+    <t>proofing was on the open window, outside temperature was 50 F</t>
+  </si>
+  <si>
+    <t>dought was very tight, finger test did not spring, no rise</t>
+  </si>
+  <si>
+    <t>dough appearance</t>
+  </si>
+  <si>
+    <t>rise was very good, ear was moderate, bread appearance was very appealing, color was golden brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dough rise good, </t>
+  </si>
+  <si>
+    <t>very good result, almost hit my baking pan's lid, open crumb, great taste</t>
+  </si>
+  <si>
+    <t>great taste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taste is good, almost half gone </t>
+  </si>
+  <si>
+    <t>Notes at dough handling</t>
+  </si>
+  <si>
+    <t>250 king arthur, 100 all purpose, 255 g water</t>
+  </si>
+  <si>
+    <t>dough was wetter, but since bread flour was used, it was easy to shape. Stretch and fold was somewhat stiff, the dough seemed not wet enough</t>
+  </si>
+  <si>
+    <t>500 for 20 min, 450 for 10 min uncovered</t>
+  </si>
+  <si>
+    <t>mix to start of bake time</t>
+  </si>
+  <si>
+    <t>10 am - 6:40 pm</t>
+  </si>
+  <si>
+    <t>easier to shape than usual</t>
+  </si>
+  <si>
+    <t>GF BAKING MAGIQUE</t>
+  </si>
+  <si>
+    <t>christina</t>
+  </si>
+  <si>
+    <t>30 oat, 30 millet 70 brown rice(Giusto) 60 cornstarch 10 psyllium, 5 flax, 175+55 water, 200 starter</t>
+  </si>
+  <si>
+    <t>70 brown rice, 30 buckwheat 30millet, 40 cornstarch, 175+55 water, 10 pshyllium, 5 flax, 50 starter</t>
+  </si>
+  <si>
+    <t>light in color, firm, rose 30 % after fermentation</t>
+  </si>
+  <si>
+    <t>rose 30% after fermentation, wetter, but more elastic, dark in color</t>
+  </si>
+  <si>
+    <t>light in color, did not rise much, crumb not very open, crust is thick</t>
+  </si>
+  <si>
+    <t>crust is thin, did not rise at all, baguetter</t>
+  </si>
+  <si>
+    <t>boulee, put to rise in a ceramic bowl</t>
+  </si>
+  <si>
+    <t>baguetter, put to rise on a parchment paper, sprinkled with brown rice</t>
+  </si>
+  <si>
+    <t>20 cover, 10 uncovered, 450 F</t>
+  </si>
+  <si>
+    <t>450 F 10 + 10, not covered but gave minimum vapor</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>room temperature</t>
+  </si>
+  <si>
+    <t>room humidity</t>
+  </si>
+  <si>
+    <t>starter properties</t>
+  </si>
+  <si>
+    <t>out of fridge, fed once 2 hours before use</t>
+  </si>
+  <si>
+    <t>fed 8 hours before use</t>
+  </si>
+  <si>
+    <t>tartine country</t>
+  </si>
+  <si>
+    <t>breadcalc.com, tartine country sourdough</t>
+  </si>
+  <si>
+    <t>350 bread, 100 AP, 40 whole wheat Whole Foods 365, 260 water, 80 whole wheat starter(100 hydration), 10 gr exxtra water, 11 g salt</t>
+  </si>
+  <si>
+    <t>4 times, every 30 min, 2 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good, healthy rise, </t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>autolyze 30 min, S+F 2,5 hours, preshape and bench rest 30 min, fermentation overnight in fridge, prooffrom 9 am to 5 pm, bake 20 min 500F + 10 min 450 F</t>
+  </si>
+  <si>
+    <t>2.5 Streatch and fold + 30 min bench rest + 20 min preshape</t>
+  </si>
+  <si>
+    <t>warm room, preheated oven and proofing on top of stove</t>
+  </si>
+  <si>
+    <t>overnight, then from 9 am to 5 m</t>
+  </si>
+  <si>
+    <t>easy, dough was not sticky at all</t>
+  </si>
+  <si>
+    <t>whole wheat starter, 100 hydration, 10 hours rise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +551,35 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,14 +602,90 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="33">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,10 +1015,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Y9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="35" style="2" customWidth="1"/>
+    <col min="11" max="11" width="89.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="89.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="16" style="2" customWidth="1"/>
+    <col min="21" max="21" width="52.83203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="24.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="18.5" style="2" customWidth="1"/>
+    <col min="24" max="24" width="22.1640625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" s="5" customFormat="1" ht="168">
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" ht="73" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43416</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>20</v>
+      </c>
+      <c r="R2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" ht="113" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>60</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="2:25">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="2:25">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="2:25">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:25">
+      <c r="C9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="16383" man="1"/>
+  </rowBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
@@ -748,11 +1481,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1032,20 +1765,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1057,7 +1792,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -1096,6 +1831,9 @@
       </c>
       <c r="D2" s="1">
         <v>225</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F2" s="1">
         <v>35</v>
@@ -1123,6 +1861,9 @@
       <c r="D3" s="1">
         <v>30</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H3" s="1">
         <v>76</v>
       </c>
@@ -1146,6 +1887,9 @@
       <c r="D4" s="1">
         <v>6</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H4" s="1">
         <v>76</v>
       </c>
@@ -1163,6 +1907,9 @@
       <c r="D5" s="1">
         <v>150</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H5" s="1">
         <v>74</v>
       </c>
@@ -1179,6 +1926,9 @@
       </c>
       <c r="D6" s="1">
         <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H6" s="1">
         <v>76</v>
@@ -1290,7 +2040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D4"/>
   <sheetViews>
@@ -1331,14 +2081,803 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="X9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35" style="2" customWidth="1"/>
+    <col min="10" max="10" width="89.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="16" style="2" customWidth="1"/>
+    <col min="20" max="20" width="52.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="5" customFormat="1" ht="168">
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="73" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43398</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="113" customHeight="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43400</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="2">
+        <v>50</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="168">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43407</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="2">
+        <v>50</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="2">
+        <v>8</v>
+      </c>
+      <c r="S4" s="2">
+        <v>6</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="112">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43408</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="196">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43411</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="2">
+        <v>50</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="112">
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43323</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="196">
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43354</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="2">
+        <v>50</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" s="2">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="224">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43416</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="2">
+        <v>50</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35" style="2" customWidth="1"/>
+    <col min="9" max="9" width="89.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16" style="2" customWidth="1"/>
+    <col min="17" max="17" width="52.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="22.1640625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="84">
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="224">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43410</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="C5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:12">
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4">
+        <v>72</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1346,4 +2885,216 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35" style="2" customWidth="1"/>
+    <col min="10" max="10" width="89.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="16" style="2" customWidth="1"/>
+    <col min="20" max="20" width="52.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="5" customFormat="1" ht="168">
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="73" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43421</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" s="2">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="113" customHeight="1">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="C9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/recipes/white/White_wild_yeast_favorite.xlsx
+++ b/recipes/white/White_wild_yeast_favorite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="0" windowWidth="25040" windowHeight="17460" tabRatio="500" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="2020" yWindow="1260" windowWidth="23060" windowHeight="13440" tabRatio="500" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="GF_bakingMaguque_data" sheetId="10" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="gf_croissant_data" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
     <sheet name="Tartine_country_data" sheetId="11" r:id="rId9"/>
+    <sheet name="Napoleon" sheetId="12" r:id="rId10"/>
+    <sheet name="My_napoleon_recipe" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="180">
   <si>
     <t>bake</t>
   </si>
@@ -500,15 +502,9 @@
     <t>fed 8 hours before use</t>
   </si>
   <si>
-    <t>tartine country</t>
-  </si>
-  <si>
     <t>breadcalc.com, tartine country sourdough</t>
   </si>
   <si>
-    <t>350 bread, 100 AP, 40 whole wheat Whole Foods 365, 260 water, 80 whole wheat starter(100 hydration), 10 gr exxtra water, 11 g salt</t>
-  </si>
-  <si>
     <t>4 times, every 30 min, 2 hours</t>
   </si>
   <si>
@@ -534,6 +530,45 @@
   </si>
   <si>
     <t>whole wheat starter, 100 hydration, 10 hours rise</t>
+  </si>
+  <si>
+    <t>250 bread, 100 AP, 40 whole wheat Whole Foods 365, 260 water, 80 whole wheat starter(100 hydration), 10 gr exxtra water, 11 g salt</t>
+  </si>
+  <si>
+    <t>basic tartine country</t>
+  </si>
+  <si>
+    <t>very healthy rise</t>
+  </si>
+  <si>
+    <t>not very high oven spring, but very open crumb</t>
+  </si>
+  <si>
+    <t>autolyze from 9 am to 7 pm, S+F 3,5 hours, preshape and bench rest 30 min, proof overnight on open window,  bake 20 min 500F + 10 min 450 F</t>
+  </si>
+  <si>
+    <t>not high, looks like overproofed</t>
+  </si>
+  <si>
+    <t>autolyze 30 min, stretch and fold 2,5 hours, overnight cold fermentation, 30 min rest on table, shape, proof frm 9 to 3 70 F</t>
+  </si>
+  <si>
+    <t>room: 70+</t>
+  </si>
+  <si>
+    <t>I think the proof was long for 70 F and the dough was overproofed</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>puff pastry</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>packages</t>
   </si>
 </sst>
 </file>
@@ -546,6 +581,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,8 +638,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -653,7 +713,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -670,6 +730,18 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -686,6 +758,18 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1223,6 +1307,349 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35" style="2" customWidth="1"/>
+    <col min="10" max="10" width="89.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="16" style="2" customWidth="1"/>
+    <col min="20" max="20" width="52.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="5" customFormat="1" ht="168">
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="73" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43421</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="2">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="113" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43425</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="280">
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43425</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="C9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
@@ -2891,21 +3318,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="35" style="2" customWidth="1"/>
@@ -3007,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C2" s="3">
         <v>43421</v>
@@ -3016,22 +3440,25 @@
         <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="O2" s="2">
         <v>40</v>
@@ -3040,22 +3467,22 @@
         <v>70</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>79</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Y2" s="2">
         <v>69</v>
@@ -3064,14 +3491,90 @@
         <v>40</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="113" customHeight="1">
+      <c r="B3" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="113" customHeight="1">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="C4" s="3"/>
+      <c r="C3" s="3">
+        <v>43425</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="280">
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43425</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="5" spans="1:27">
       <c r="C5" s="3"/>

--- a/recipes/white/White_wild_yeast_favorite.xlsx
+++ b/recipes/white/White_wild_yeast_favorite.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="210">
   <si>
     <t>bake</t>
   </si>
@@ -569,6 +569,96 @@
   </si>
   <si>
     <t>packages</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>sticks</t>
+  </si>
+  <si>
+    <t>whole mild</t>
+  </si>
+  <si>
+    <t>cups</t>
+  </si>
+  <si>
+    <t>Organic valley</t>
+  </si>
+  <si>
+    <t>cornstarch</t>
+  </si>
+  <si>
+    <t>tablespoons</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>vanilla</t>
+  </si>
+  <si>
+    <t>teaspoon</t>
+  </si>
+  <si>
+    <t>brandy</t>
+  </si>
+  <si>
+    <t>noyan or hennesy</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>defrost the pastry</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>divide every sheet into 4 equal squares</t>
+  </si>
+  <si>
+    <t>keep squares covered and cold</t>
+  </si>
+  <si>
+    <t>dust with flour to prevent sticking</t>
+  </si>
+  <si>
+    <t>roll out each square into half sheet sized rectangles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold the rectangle like a letter and once more to put on a plate and regrigerate while you roll out the rest </t>
+  </si>
+  <si>
+    <t>roll out all 16 sheets</t>
+  </si>
+  <si>
+    <t>keep them piled on a large plate in refrigerator</t>
+  </si>
+  <si>
+    <t>meanwhile heat the oven to 400 F</t>
+  </si>
+  <si>
+    <t>dust the baking sheet with flour, and roll out one of the sheets on the sheet</t>
+  </si>
+  <si>
+    <t>bake on the middle rack for 4 minutes until light golden</t>
+  </si>
+  <si>
+    <t>bake all the sheets similar way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can bake all the sheets night before </t>
+  </si>
+  <si>
+    <t>pile the sheets and let them cool</t>
+  </si>
+  <si>
+    <t>it is safe to pile the hot sheet on top of he already baked ones</t>
   </si>
 </sst>
 </file>
@@ -638,8 +728,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -713,7 +805,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -742,6 +834,7 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -770,6 +863,7 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1597,21 +1691,26 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="77" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="52.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1624,8 +1723,14 @@
       <c r="E2" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
@@ -1637,6 +1742,173 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/recipes/white/White_wild_yeast_favorite.xlsx
+++ b/recipes/white/White_wild_yeast_favorite.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1260" windowWidth="23060" windowHeight="13440" tabRatio="500" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="23180" windowHeight="17540" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GF_bakingMaguque_data" sheetId="10" r:id="rId1"/>
     <sheet name="WhiteEasy_1" sheetId="5" r:id="rId2"/>
     <sheet name="WhiteWildYeastFavorite" sheetId="2" r:id="rId3"/>
     <sheet name="WhiteWildYeastFavorite (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="header" sheetId="1" r:id="rId5"/>
-    <sheet name="easy_northwest_white_data" sheetId="6" r:id="rId6"/>
-    <sheet name="gf_croissant_data" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
-    <sheet name="Tartine_country_data" sheetId="11" r:id="rId9"/>
-    <sheet name="Napoleon" sheetId="12" r:id="rId10"/>
-    <sheet name="My_napoleon_recipe" sheetId="13" r:id="rId11"/>
+    <sheet name="easy_northwest_white_data" sheetId="6" r:id="rId5"/>
+    <sheet name="gf_croissant_data" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId7"/>
+    <sheet name="Tartine_country_data" sheetId="11" r:id="rId8"/>
+    <sheet name="Napoleon" sheetId="12" r:id="rId9"/>
+    <sheet name="My_napoleon_recipe" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="211">
   <si>
     <t>bake</t>
   </si>
@@ -106,18 +105,6 @@
     <t>step no</t>
   </si>
   <si>
-    <t>original spreadsheet</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>steps description doc</t>
-  </si>
-  <si>
-    <t>intenal id</t>
-  </si>
-  <si>
     <t>hydration</t>
   </si>
   <si>
@@ -659,6 +646,21 @@
   </si>
   <si>
     <t>it is safe to pile the hot sheet on top of he already baked ones</t>
+  </si>
+  <si>
+    <t>liked it</t>
+  </si>
+  <si>
+    <t>dough rise very moderate, it appeared to me not ready</t>
+  </si>
+  <si>
+    <t>very good result, almost hit my baking pan's lid, crumb is not open appeared underproofed</t>
+  </si>
+  <si>
+    <t>dough not wet, very easy to handle</t>
+  </si>
+  <si>
+    <t>overnight, on the windows, outside temp 54F</t>
   </si>
 </sst>
 </file>
@@ -728,8 +730,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -805,7 +813,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -835,6 +843,9 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -864,6 +875,9 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1228,102 +1242,102 @@
   <sheetData>
     <row r="1" spans="2:25" s="5" customFormat="1" ht="168">
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="2:25" ht="73" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3">
         <v>43416</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="P2" s="2">
         <v>50</v>
@@ -1337,26 +1351,26 @@
     </row>
     <row r="3" spans="2:25" ht="113" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="P3" s="2">
         <v>50</v>
@@ -1365,7 +1379,7 @@
         <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:25">
@@ -1403,297 +1417,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="35" style="2" customWidth="1"/>
-    <col min="10" max="10" width="89.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="89.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="16" style="2" customWidth="1"/>
-    <col min="20" max="20" width="52.83203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="24.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" ht="168">
-      <c r="B1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="73" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="3">
-        <v>43421</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="O2" s="2">
-        <v>40</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="113" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43425</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="280">
-      <c r="B4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43425</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="C9" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -1721,10 +1447,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -1732,183 +1458,183 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B5" s="1">
         <v>2.5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1">
         <v>2.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1">
         <v>0.5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2232,7 +1958,7 @@
         <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2444,7 +2170,7 @@
         <v>150</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -2468,7 +2194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2491,7 +2217,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -2532,7 +2258,7 @@
         <v>225</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1">
         <v>35</v>
@@ -2561,7 +2287,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1">
         <v>76</v>
@@ -2587,7 +2313,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H4" s="1">
         <v>76</v>
@@ -2607,7 +2333,7 @@
         <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1">
         <v>74</v>
@@ -2627,7 +2353,7 @@
         <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1">
         <v>76</v>
@@ -2741,54 +2467,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D4"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="X9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="X10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
+      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
@@ -2817,82 +2502,82 @@
   <sheetData>
     <row r="1" spans="1:27" s="5" customFormat="1" ht="168">
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="X1" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="73" customHeight="1">
@@ -2900,40 +2585,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3">
         <v>43398</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="O2" s="2">
         <v>40</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="113" customHeight="1">
@@ -2941,46 +2626,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
         <v>43400</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2">
         <v>50</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="168">
@@ -2988,40 +2673,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
         <v>43407</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="O4" s="2">
         <v>50</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R4" s="2">
         <v>8</v>
@@ -3030,13 +2715,13 @@
         <v>6</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="112">
@@ -3044,52 +2729,52 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3">
         <v>43408</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="T5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="W5" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="196">
@@ -3097,137 +2782,143 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4">
         <v>43411</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O6" s="2">
         <v>50</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="112">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3">
         <v>43323</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O7" s="2">
         <v>50</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="196">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>43354</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O8" s="2">
         <v>50</v>
       </c>
       <c r="P8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="T8" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U8" s="2">
         <v>50</v>
@@ -3239,57 +2930,60 @@
         <v>40</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="224">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3">
         <v>43416</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O9" s="2">
         <v>50</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Y9" s="2">
         <v>71</v>
@@ -3298,7 +2992,82 @@
         <v>40</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="224">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43447</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="2">
+        <v>50</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +3081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -3347,64 +3116,64 @@
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" ht="84">
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="224">
@@ -3412,49 +3181,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3">
         <v>43410</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -3477,7 +3246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L4"/>
   <sheetViews>
@@ -3489,19 +3258,19 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="2:12">
@@ -3518,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3564,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J4">
         <v>72</v>
@@ -3578,6 +3347,303 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35" style="2" customWidth="1"/>
+    <col min="10" max="10" width="89.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="16" style="2" customWidth="1"/>
+    <col min="20" max="20" width="52.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="5" customFormat="1" ht="168">
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="73" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43421</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="2">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="113" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43425</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="280">
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43425</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="C9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3590,7 +3656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -3620,82 +3686,82 @@
   <sheetData>
     <row r="1" spans="1:27" s="5" customFormat="1" ht="168">
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="X1" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="73" customHeight="1">
@@ -3703,58 +3769,58 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3">
         <v>43421</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="O2" s="2">
         <v>40</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="S2" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Y2" s="2">
         <v>69</v>
@@ -3763,42 +3829,42 @@
         <v>40</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="113" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3">
         <v>43425</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Y3" s="2">
         <v>65</v>
@@ -3807,36 +3873,36 @@
         <v>60</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="280">
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3">
         <v>43425</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Y4" s="2">
         <v>70</v>
@@ -3845,7 +3911,7 @@
         <v>70</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:27">

--- a/recipes/white/White_wild_yeast_favorite.xlsx
+++ b/recipes/white/White_wild_yeast_favorite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="0" windowWidth="23180" windowHeight="17540" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="23680" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GF_bakingMaguque_data" sheetId="10" r:id="rId1"/>
@@ -13,10 +13,9 @@
     <sheet name="WhiteWildYeastFavorite (2)" sheetId="4" r:id="rId4"/>
     <sheet name="easy_northwest_white_data" sheetId="6" r:id="rId5"/>
     <sheet name="gf_croissant_data" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId7"/>
-    <sheet name="Tartine_country_data" sheetId="11" r:id="rId8"/>
-    <sheet name="Napoleon" sheetId="12" r:id="rId9"/>
-    <sheet name="My_napoleon_recipe" sheetId="13" r:id="rId10"/>
+    <sheet name="Tartine_country_data" sheetId="11" r:id="rId7"/>
+    <sheet name="Napoleon" sheetId="12" r:id="rId8"/>
+    <sheet name="My_napoleon_recipe" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="213">
   <si>
     <t>bake</t>
   </si>
@@ -336,18 +335,9 @@
     <t>fridge</t>
   </si>
   <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>flour</t>
   </si>
   <si>
-    <t>temp</t>
-  </si>
-  <si>
     <t>taste is unknown</t>
   </si>
   <si>
@@ -661,6 +651,21 @@
   </si>
   <si>
     <t>overnight, on the windows, outside temp 54F</t>
+  </si>
+  <si>
+    <t>450 F 20 minutes + 15 not covered, but gave minimum vapor</t>
+  </si>
+  <si>
+    <t>10 pm to 11 am</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>first time used the proofing busker with rice flour. Proofing on tabletop with open window, verfy warm night, wndows open</t>
+  </si>
+  <si>
+    <t>yes, 30 each buckwheat, oatflour, millet, cornstarch, arrowroot powder, 40 gr brown rice, 175+55 water, 10 gr salt, 24 gr honey, 100 gr starter(oat+white rice, 100 % hydration)</t>
   </si>
 </sst>
 </file>
@@ -673,7 +678,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,8 +735,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -813,7 +826,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -846,6 +859,10 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -878,6 +895,10 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1209,11 +1230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
@@ -1251,7 +1272,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>30</v>
@@ -1263,7 +1284,7 @@
         <v>80</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>32</v>
@@ -1272,7 +1293,7 @@
         <v>33</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>76</v>
@@ -1290,7 +1311,7 @@
         <v>8</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>72</v>
@@ -1311,12 +1332,12 @@
         <v>44</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="2:25" ht="73" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3">
         <v>43416</v>
@@ -1325,19 +1346,19 @@
         <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P2" s="2">
         <v>50</v>
@@ -1351,26 +1372,26 @@
     </row>
     <row r="3" spans="2:25" ht="113" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P3" s="2">
         <v>50</v>
@@ -1379,11 +1400,53 @@
         <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="122" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="P4" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>60</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="V4" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="2:25">
       <c r="C5" s="3"/>
@@ -1407,239 +1470,6 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="5" max="16383" man="1"/>
   </rowBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="77" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="52.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2469,7 +2299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="X10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2511,7 +2341,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>30</v>
@@ -2529,7 +2359,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>76</v>
@@ -2547,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>72</v>
@@ -2568,16 +2398,16 @@
         <v>44</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="73" customHeight="1">
@@ -2791,7 +2621,7 @@
         <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>99</v>
@@ -2838,25 +2668,25 @@
         <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>66</v>
@@ -2865,7 +2695,7 @@
         <v>50</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="196">
@@ -2882,25 +2712,25 @@
         <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>66</v>
@@ -2909,16 +2739,16 @@
         <v>50</v>
       </c>
       <c r="P8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="S8" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U8" s="2">
         <v>50</v>
@@ -2930,7 +2760,7 @@
         <v>40</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="224">
@@ -2947,25 +2777,25 @@
         <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>66</v>
@@ -2977,13 +2807,13 @@
         <v>66</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Y9" s="2">
         <v>71</v>
@@ -2992,7 +2822,7 @@
         <v>40</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="224">
@@ -3009,25 +2839,25 @@
         <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>66</v>
@@ -3039,16 +2869,16 @@
         <v>66</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Y10" s="2">
         <v>71</v>
@@ -3057,7 +2887,7 @@
         <v>40</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -3086,7 +2916,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
@@ -3247,115 +3077,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="2:12">
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12">
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>72</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4">
-        <v>72</v>
-      </c>
-      <c r="K4">
-        <v>80</v>
-      </c>
-      <c r="L4">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
@@ -3398,7 +3119,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>30</v>
@@ -3416,7 +3137,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>76</v>
@@ -3434,7 +3155,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>72</v>
@@ -3455,16 +3176,16 @@
         <v>44</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="73" customHeight="1">
@@ -3472,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3">
         <v>43421</v>
@@ -3481,25 +3202,25 @@
         <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O2" s="2">
         <v>40</v>
@@ -3508,22 +3229,22 @@
         <v>66</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y2" s="2">
         <v>69</v>
@@ -3532,12 +3253,12 @@
         <v>40</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="113" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3">
         <v>43425</v>
@@ -3546,28 +3267,28 @@
         <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y3" s="2">
         <v>65</v>
@@ -3576,12 +3297,12 @@
         <v>60</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="280">
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="3">
         <v>43425</v>
@@ -3590,31 +3311,31 @@
         <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y4" s="2">
         <v>70</v>
@@ -3623,7 +3344,7 @@
         <v>70</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3652,7 +3373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
@@ -3695,7 +3416,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>30</v>
@@ -3713,7 +3434,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>76</v>
@@ -3731,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>72</v>
@@ -3752,16 +3473,16 @@
         <v>44</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="73" customHeight="1">
@@ -3769,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3">
         <v>43421</v>
@@ -3778,25 +3499,25 @@
         <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O2" s="2">
         <v>40</v>
@@ -3805,22 +3526,22 @@
         <v>66</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y2" s="2">
         <v>69</v>
@@ -3829,12 +3550,12 @@
         <v>40</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="113" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3">
         <v>43425</v>
@@ -3843,28 +3564,28 @@
         <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y3" s="2">
         <v>65</v>
@@ -3873,12 +3594,12 @@
         <v>60</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="280">
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="3">
         <v>43425</v>
@@ -3887,22 +3608,22 @@
         <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y4" s="2">
         <v>70</v>
@@ -3911,7 +3632,7 @@
         <v>70</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3928,6 +3649,239 @@
     </row>
     <row r="9" spans="1:27">
       <c r="C9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="77" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="52.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/recipes/white/White_wild_yeast_favorite.xlsx
+++ b/recipes/white/White_wild_yeast_favorite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="0" windowWidth="23680" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="23680" windowHeight="14020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GF_bakingMaguque_data" sheetId="10" r:id="rId1"/>
@@ -678,7 +678,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1230,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
@@ -1740,15 +1739,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.5" style="1" bestFit="1" customWidth="1"/>
